--- a/simulations/raw_inclusion_exclusion/Bos_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
+++ b/simulations/raw_inclusion_exclusion/Bos_2018 IEC/output/tables/time_to_discovery/tds_sim.xlsx
@@ -414,10 +414,10 @@
         <v>45</v>
       </c>
       <c r="C2">
-        <v>2679</v>
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>1362</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,10 +428,10 @@
         <v>173</v>
       </c>
       <c r="C3">
-        <v>2824</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>1498.5</v>
+        <v>103.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,10 +442,10 @@
         <v>28</v>
       </c>
       <c r="C4">
-        <v>2673</v>
+        <v>96</v>
       </c>
       <c r="D4">
-        <v>1350.5</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,10 +456,10 @@
         <v>82</v>
       </c>
       <c r="C5">
-        <v>2692</v>
+        <v>127</v>
       </c>
       <c r="D5">
-        <v>1387</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,10 +470,10 @@
         <v>89</v>
       </c>
       <c r="C6">
-        <v>2699</v>
+        <v>116</v>
       </c>
       <c r="D6">
-        <v>1394</v>
+        <v>102.5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,10 +484,10 @@
         <v>74</v>
       </c>
       <c r="C7">
-        <v>2700</v>
+        <v>124</v>
       </c>
       <c r="D7">
-        <v>1387</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,10 +498,10 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>2667</v>
+        <v>63</v>
       </c>
       <c r="D8">
-        <v>1341.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,10 +512,10 @@
         <v>64</v>
       </c>
       <c r="C9">
-        <v>2687</v>
+        <v>74</v>
       </c>
       <c r="D9">
-        <v>1375.5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,10 +523,10 @@
         <v>3624</v>
       </c>
       <c r="C10">
-        <v>2658</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>2658</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,10 +537,10 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>2668</v>
+        <v>64</v>
       </c>
       <c r="D11">
-        <v>1341.5</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -551,7 +551,7 @@
         <v>65.11111111111111</v>
       </c>
       <c r="C12">
-        <v>2694.7</v>
+        <v>88.8</v>
       </c>
     </row>
   </sheetData>
